--- a/sourcetreeprojtest.xlsx
+++ b/sourcetreeprojtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAWondem\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245BB19A-2ADB-408D-BAC1-F7C42A18B624}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F011CA8-4929-4AD4-B57F-7F4DA64FFA2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{386B36F9-F89C-4C9C-B119-38118E795F97}"/>
   </bookViews>
@@ -377,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5161C0-799B-41A1-B6F6-A034E2F4FC05}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5</v>
       </c>
@@ -396,6 +396,10 @@
         <f>SUM(A1+B1)</f>
         <v>12</v>
       </c>
+      <c r="D1">
+        <f>SUM(B1-A1)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
